--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N2">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O2">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P2">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q2">
-        <v>4.401887227859</v>
+        <v>73.308965779996</v>
       </c>
       <c r="R2">
-        <v>39.616985050731</v>
+        <v>659.780692019964</v>
       </c>
       <c r="S2">
-        <v>0.0001438335851207563</v>
+        <v>0.00813992410484461</v>
       </c>
       <c r="T2">
-        <v>0.0002000317644655646</v>
+        <v>0.01004979302364887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N3">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O3">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P3">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q3">
-        <v>62.04585102826801</v>
+        <v>91.45741584080933</v>
       </c>
       <c r="R3">
-        <v>558.412659254412</v>
+        <v>548.744495044856</v>
       </c>
       <c r="S3">
-        <v>0.002027375244595887</v>
+        <v>0.01015505287584541</v>
       </c>
       <c r="T3">
-        <v>0.002819504548050082</v>
+        <v>0.00835848739553695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>4374.842957</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N4">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O4">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P4">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q4">
-        <v>342.5732758700735</v>
+        <v>3659.941119710716</v>
       </c>
       <c r="R4">
-        <v>2055.439655220441</v>
+        <v>32939.47007739644</v>
       </c>
       <c r="S4">
-        <v>0.01119373120763031</v>
+        <v>0.4063847119607646</v>
       </c>
       <c r="T4">
-        <v>0.01037820572311951</v>
+        <v>0.5017346833430718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>4374.842957</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N5">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O5">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P5">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q5">
-        <v>1.332314785599667</v>
+        <v>4566.000261725129</v>
       </c>
       <c r="R5">
-        <v>11.990833070397</v>
+        <v>27396.00157035077</v>
       </c>
       <c r="S5">
-        <v>4.353396672894731E-05</v>
+        <v>0.5069897685459503</v>
       </c>
       <c r="T5">
-        <v>6.054341322067109E-05</v>
+        <v>0.4172964574253618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,51 +788,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H6">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I6">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J6">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N6">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O6">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P6">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q6">
-        <v>259.6571374648497</v>
+        <v>145.531248923744</v>
       </c>
       <c r="R6">
-        <v>2336.914237183646</v>
+        <v>1309.781240313696</v>
       </c>
       <c r="S6">
-        <v>0.00848441022009723</v>
+        <v>0.0161591874679778</v>
       </c>
       <c r="T6">
-        <v>0.01179941072421205</v>
+        <v>0.01995061469760689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1458.280985666667</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H7">
-        <v>4374.842957</v>
+        <v>173.958088</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N7">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O7">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P7">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q7">
-        <v>3659.941119710716</v>
+        <v>181.5591286691306</v>
       </c>
       <c r="R7">
-        <v>32939.47007739644</v>
+        <v>1089.354772014784</v>
       </c>
       <c r="S7">
-        <v>0.1195901724258642</v>
+        <v>0.02015957410098551</v>
       </c>
       <c r="T7">
-        <v>0.1663160463045055</v>
+        <v>0.01659307421463845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1458.280985666667</v>
+        <v>29.481085</v>
       </c>
       <c r="H8">
-        <v>4374.842957</v>
+        <v>58.96217</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.8571405</v>
+        <v>2.509764</v>
       </c>
       <c r="N8">
-        <v>27.714281</v>
+        <v>7.529292</v>
       </c>
       <c r="O8">
-        <v>0.8348251414909441</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P8">
-        <v>0.7711387726585802</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q8">
-        <v>20207.60450686148</v>
+        <v>73.99056581394001</v>
       </c>
       <c r="R8">
-        <v>121245.6270411689</v>
+        <v>443.94339488364</v>
       </c>
       <c r="S8">
-        <v>0.6602922911175818</v>
+        <v>0.008215606151196401</v>
       </c>
       <c r="T8">
-        <v>0.6121863306791764</v>
+        <v>0.006762154889888169</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1458.280985666667</v>
+        <v>29.481085</v>
       </c>
       <c r="H9">
-        <v>4374.842957</v>
+        <v>58.96217</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05389233333333333</v>
+        <v>3.131084</v>
       </c>
       <c r="N9">
-        <v>0.161677</v>
+        <v>6.262168</v>
       </c>
       <c r="O9">
-        <v>0.003246750280137314</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P9">
-        <v>0.004498597793214309</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q9">
-        <v>78.59016497320987</v>
+        <v>92.30775354614001</v>
       </c>
       <c r="R9">
-        <v>707.3114847588889</v>
+        <v>369.23101418456</v>
       </c>
       <c r="S9">
-        <v>0.002567967918802518</v>
+        <v>0.01024947085475472</v>
       </c>
       <c r="T9">
-        <v>0.003571315791494544</v>
+        <v>0.005624134375782108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.09979000000001</v>
+        <v>21.628479</v>
       </c>
       <c r="H10">
-        <v>180.29937</v>
+        <v>64.885437</v>
       </c>
       <c r="I10">
-        <v>0.03259661091107292</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J10">
-        <v>0.03271770480169137</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.178057</v>
+        <v>2.509764</v>
       </c>
       <c r="N10">
-        <v>0.534171</v>
+        <v>7.529292</v>
       </c>
       <c r="O10">
-        <v>0.01072706596418309</v>
+        <v>0.4449267202378082</v>
       </c>
       <c r="P10">
-        <v>0.01486309420510698</v>
+        <v>0.545938718598321</v>
       </c>
       <c r="Q10">
-        <v>10.70118830803</v>
+        <v>54.282377968956</v>
       </c>
       <c r="R10">
-        <v>96.31069477227</v>
+        <v>488.541401720604</v>
       </c>
       <c r="S10">
-        <v>0.0003496659954518894</v>
+        <v>0.006027290553024836</v>
       </c>
       <c r="T10">
-        <v>0.0004862863286424196</v>
+        <v>0.007441472644105208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,666 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.09979000000001</v>
+        <v>21.628479</v>
       </c>
       <c r="H11">
-        <v>180.29937</v>
+        <v>64.885437</v>
       </c>
       <c r="I11">
-        <v>0.03259661091107292</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J11">
-        <v>0.03271770480169137</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.509764</v>
+        <v>3.131084</v>
       </c>
       <c r="N11">
-        <v>7.529292</v>
+        <v>6.262168</v>
       </c>
       <c r="O11">
-        <v>0.1512010422647355</v>
+        <v>0.5550732797621918</v>
       </c>
       <c r="P11">
-        <v>0.2094995353430986</v>
+        <v>0.454061281401679</v>
       </c>
       <c r="Q11">
-        <v>150.83628934956</v>
+        <v>67.72058454123599</v>
       </c>
       <c r="R11">
-        <v>1357.52660414604</v>
+        <v>406.323507247416</v>
       </c>
       <c r="S11">
-        <v>0.004928641544052274</v>
+        <v>0.007519413384655774</v>
       </c>
       <c r="T11">
-        <v>0.006854343953447008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>60.09979000000001</v>
-      </c>
-      <c r="H12">
-        <v>180.29937</v>
-      </c>
-      <c r="I12">
-        <v>0.03259661091107292</v>
-      </c>
-      <c r="J12">
-        <v>0.03271770480169137</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>13.8571405</v>
-      </c>
-      <c r="N12">
-        <v>27.714281</v>
-      </c>
-      <c r="O12">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P12">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q12">
-        <v>832.811234050495</v>
-      </c>
-      <c r="R12">
-        <v>4996.86740430297</v>
-      </c>
-      <c r="S12">
-        <v>0.0272124703159617</v>
-      </c>
-      <c r="T12">
-        <v>0.02522989072498202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>60.09979000000001</v>
-      </c>
-      <c r="H13">
-        <v>180.29937</v>
-      </c>
-      <c r="I13">
-        <v>0.03259661091107292</v>
-      </c>
-      <c r="J13">
-        <v>0.03271770480169137</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.161677</v>
-      </c>
-      <c r="O13">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P13">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q13">
-        <v>3.238917915943333</v>
-      </c>
-      <c r="R13">
-        <v>29.15026124349</v>
-      </c>
-      <c r="S13">
-        <v>0.000105833055607053</v>
-      </c>
-      <c r="T13">
-        <v>0.000147183794619926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>20.472042</v>
-      </c>
-      <c r="H14">
-        <v>40.944084</v>
-      </c>
-      <c r="I14">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J14">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.178057</v>
-      </c>
-      <c r="N14">
-        <v>0.534171</v>
-      </c>
-      <c r="O14">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P14">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q14">
-        <v>3.645190382394</v>
-      </c>
-      <c r="R14">
-        <v>21.871142294364</v>
-      </c>
-      <c r="S14">
-        <v>0.0001191081856502808</v>
-      </c>
-      <c r="T14">
-        <v>0.000110430492840806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>20.472042</v>
-      </c>
-      <c r="H15">
-        <v>40.944084</v>
-      </c>
-      <c r="I15">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J15">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.509764</v>
-      </c>
-      <c r="N15">
-        <v>7.529292</v>
-      </c>
-      <c r="O15">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P15">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q15">
-        <v>51.37999401808801</v>
-      </c>
-      <c r="R15">
-        <v>308.279964108528</v>
-      </c>
-      <c r="S15">
-        <v>0.001678863714711532</v>
-      </c>
-      <c r="T15">
-        <v>0.001556549169277887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>20.472042</v>
-      </c>
-      <c r="H16">
-        <v>40.944084</v>
-      </c>
-      <c r="I16">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J16">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>13.8571405</v>
-      </c>
-      <c r="N16">
-        <v>27.714281</v>
-      </c>
-      <c r="O16">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P16">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q16">
-        <v>283.683962315901</v>
-      </c>
-      <c r="R16">
-        <v>1134.735849263604</v>
-      </c>
-      <c r="S16">
-        <v>0.009269497201772605</v>
-      </c>
-      <c r="T16">
-        <v>0.005729441900737005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>20.472042</v>
-      </c>
-      <c r="H17">
-        <v>40.944084</v>
-      </c>
-      <c r="I17">
-        <v>0.01110351945704208</v>
-      </c>
-      <c r="J17">
-        <v>0.00742984544919738</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.161677</v>
-      </c>
-      <c r="O17">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P17">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q17">
-        <v>1.103286111478</v>
-      </c>
-      <c r="R17">
-        <v>6.619716668868</v>
-      </c>
-      <c r="S17">
-        <v>3.605035490766149E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.342388634168272E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>280.168911</v>
-      </c>
-      <c r="H18">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I18">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J18">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.178057</v>
-      </c>
-      <c r="N18">
-        <v>0.534171</v>
-      </c>
-      <c r="O18">
-        <v>0.01072706596418309</v>
-      </c>
-      <c r="P18">
-        <v>0.01486309420510698</v>
-      </c>
-      <c r="Q18">
-        <v>49.88603578592701</v>
-      </c>
-      <c r="R18">
-        <v>448.974322073343</v>
-      </c>
-      <c r="S18">
-        <v>0.001630047977862931</v>
-      </c>
-      <c r="T18">
-        <v>0.002266934894946135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>280.168911</v>
-      </c>
-      <c r="H19">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I19">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J19">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.509764</v>
-      </c>
-      <c r="N19">
-        <v>7.529292</v>
-      </c>
-      <c r="O19">
-        <v>0.1512010422647355</v>
-      </c>
-      <c r="P19">
-        <v>0.2094995353430986</v>
-      </c>
-      <c r="Q19">
-        <v>703.1578467470041</v>
-      </c>
-      <c r="R19">
-        <v>6328.420620723036</v>
-      </c>
-      <c r="S19">
-        <v>0.02297598933551156</v>
-      </c>
-      <c r="T19">
-        <v>0.03195309136781813</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>280.168911</v>
-      </c>
-      <c r="H20">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I20">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J20">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>13.8571405</v>
-      </c>
-      <c r="N20">
-        <v>27.714281</v>
-      </c>
-      <c r="O20">
-        <v>0.8348251414909441</v>
-      </c>
-      <c r="P20">
-        <v>0.7711387726585802</v>
-      </c>
-      <c r="Q20">
-        <v>3882.339963458996</v>
-      </c>
-      <c r="R20">
-        <v>23294.03978075397</v>
-      </c>
-      <c r="S20">
-        <v>0.1268571516479977</v>
-      </c>
-      <c r="T20">
-        <v>0.1176149036305653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>280.168911</v>
-      </c>
-      <c r="H21">
-        <v>840.5067330000001</v>
-      </c>
-      <c r="I21">
-        <v>0.1519565539454633</v>
-      </c>
-      <c r="J21">
-        <v>0.152521060800867</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05389233333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.161677</v>
-      </c>
-      <c r="O21">
-        <v>0.003246750280137314</v>
-      </c>
-      <c r="P21">
-        <v>0.004498597793214309</v>
-      </c>
-      <c r="Q21">
-        <v>15.098956341249</v>
-      </c>
-      <c r="R21">
-        <v>135.890607071241</v>
-      </c>
-      <c r="S21">
-        <v>0.0004933649840911339</v>
-      </c>
-      <c r="T21">
-        <v>0.0006861309075374859</v>
+        <v>0.006189127990359655</v>
       </c>
     </row>
   </sheetData>
